--- a/output/all_idiom_identify.xlsx
+++ b/output/all_idiom_identify.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>zero_experiment</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>one_experiment</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>two_experiment</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>five_experiment</t>
         </is>
@@ -493,12 +498,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 가방끈이 길다 </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 가방끈이 길다 </t>
         </is>
@@ -527,12 +533,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 가재는 게 편이라고 </t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 가재는 게 편이다 </t>
         </is>
@@ -560,17 +567,18 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 간 떨어지는 줄 </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 장난치다 </t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 장난을 치다/간 떨어지는 줄 알다 </t>
         </is>
@@ -598,18 +606,19 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t xml:space="preserve"> 강 건너 불 보기 </t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> 강 건너 불 구경하다
 </t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t xml:space="preserve"> 강 건너 불 구경하다 </t>
         </is>
@@ -638,12 +647,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 걱정이 태산이다 </t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 걱정이 태산이다 </t>
         </is>
@@ -671,13 +681,14 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t xml:space="preserve"> 악용하다 </t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,12 +713,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve"> 고생 끝에 낙이 온다 </t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t xml:space="preserve"> 고생 끝에 낙이 온다 </t>
         </is>
@@ -735,17 +747,18 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 귀가 얇다 </t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 귀가 얇다 </t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 귀가 얇다 </t>
         </is>
@@ -774,13 +787,14 @@
         <v>0</v>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 귀에 못이 박다  
 </t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 귀에 못이 박히다 
 </t>
@@ -809,13 +823,19 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 그림의 떡이다  
+</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve"> 그림의 떡이다 </t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t xml:space="preserve"> 그림의 떡이다 </t>
         </is>
@@ -843,17 +863,18 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 식후경 </t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 식후경이다 </t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 식후경 </t>
         </is>
@@ -881,19 +902,20 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t xml:space="preserve"> 급물살을 타다
 </t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve"> 급물살을 타다
 </t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t xml:space="preserve"> 급물살을 타다 </t>
         </is>
@@ -922,12 +944,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve"> 기가 막히다 </t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t xml:space="preserve"> 뻔뻔함에 기가 막히다 </t>
         </is>
@@ -957,7 +980,8 @@
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t xml:space="preserve"> 새로운 길을 열다 </t>
         </is>
@@ -987,7 +1011,8 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 김칫국 마시다 </t>
         </is>
@@ -1015,13 +1040,14 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t xml:space="preserve"> 꿩 먹고 알 먹고 </t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
         <is>
           <t xml:space="preserve"> 꿩 먹고 알 먹고 </t>
         </is>
@@ -1049,17 +1075,18 @@
       <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t xml:space="preserve"> 날개돋친 팔린다 </t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve"> 날개돋다 </t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t xml:space="preserve"> 날개를 달다 </t>
         </is>
@@ -1087,17 +1114,18 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t xml:space="preserve"> 날개를 펴다 </t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve"> 날개를 펴다 </t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t xml:space="preserve"> 날개를 펴다 </t>
         </is>
@@ -1125,17 +1153,18 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t xml:space="preserve"> 남의 떡이 더 커 보인다 </t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve"> 남의 떡이 더 커 보이다 </t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t xml:space="preserve"> 남의 떡이 더 커 보인다 </t>
         </is>
@@ -1163,17 +1192,18 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t xml:space="preserve"> 섣불리 뛰어들다 </t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve"> 섣불리 뛰어들다 </t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1200,6 +1230,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1223,17 +1254,18 @@
       <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t xml:space="preserve"> 안간힘을 써도 소용없다 </t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve"> 눈 깜짝할 사이 </t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1257,17 +1289,18 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t xml:space="preserve"> 눈이 높다 </t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve"> 눈이 높다 </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t xml:space="preserve"> 눈이 높다 </t>
         </is>
@@ -1296,12 +1329,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve"> 눈을 잘 맞추다 </t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t xml:space="preserve"> 눈을 잘 맞추지 못하다 </t>
         </is>
@@ -1329,14 +1363,15 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t xml:space="preserve"> 눈감아 주다 
 </t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
         <is>
           <t xml:space="preserve"> 눈감다 </t>
         </is>
@@ -1364,17 +1399,18 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t xml:space="preserve"> 눈과 귀가 쏠리다 </t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve"> 왈츠를 추다 </t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t xml:space="preserve"> 왈츠를 추다 </t>
         </is>
@@ -1402,13 +1438,14 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t xml:space="preserve"> 한여름 때아닌 온천체험 </t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
         <is>
           <t xml:space="preserve"> 한여름 때아닌 </t>
         </is>
@@ -1437,12 +1474,13 @@
         <v>1</v>
       </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t xml:space="preserve"> 눈이 번쩍 뜨이다 </t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t xml:space="preserve"> 눈이 번쩍 뜨이다 </t>
         </is>
@@ -1470,13 +1508,14 @@
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t xml:space="preserve"> 다리를 놓아주다 </t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
         <is>
           <t xml:space="preserve"> 다리를 놓다 </t>
         </is>
@@ -1505,12 +1544,13 @@
         <v>1</v>
       </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t xml:space="preserve"> 너도나도 </t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t xml:space="preserve"> 너도나도 </t>
         </is>
@@ -1538,13 +1578,14 @@
       <c r="E32" t="n">
         <v>1</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t xml:space="preserve"> 군사분계선에 너무 가까워 </t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
         <is>
           <t xml:space="preserve"> 물러나다 </t>
         </is>
@@ -1572,17 +1613,18 @@
       <c r="E33" t="n">
         <v>1</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t xml:space="preserve"> 주선율을 끌고 가다 </t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t xml:space="preserve"> 주선을 끄다 </t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t xml:space="preserve"> 주선율을 끌다 </t>
         </is>
@@ -1610,13 +1652,14 @@
       <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t xml:space="preserve"> 뒤통수 맞았다 </t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
         <is>
           <t xml:space="preserve"> 뒤통수를 맞다   
 </t>
@@ -1646,12 +1689,13 @@
         <v>1</v>
       </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t xml:space="preserve"> 날로 성장하다 </t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t xml:space="preserve"> 적자규모를 개선하다 </t>
         </is>
@@ -1679,17 +1723,18 @@
       <c r="E36" t="n">
         <v>1</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t xml:space="preserve"> 등골이 오싹해지다 </t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t xml:space="preserve"> 등골이 오싹하다 </t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1713,17 +1758,18 @@
       <c r="E37" t="n">
         <v>0</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t xml:space="preserve"> 땅에 떨어진 </t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t xml:space="preserve"> 땅에 떨어지다  </t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t xml:space="preserve"> 땅에 떨어지다 </t>
         </is>
@@ -1751,17 +1797,18 @@
       <c r="E38" t="n">
         <v>1</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t xml:space="preserve"> 똥 묻은 개가 겨 묻은 개를 나무란다 </t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t xml:space="preserve"> 똥 묻은 개가 겨 묻은 개를 나무란다 </t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t xml:space="preserve"> 똥 묻은 개가 겨 묻은 개를 나무란다 </t>
         </is>
@@ -1789,13 +1836,14 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t xml:space="preserve"> 국민의 상식과 뜻에 맞는 제도개선이 있을 것 </t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1819,17 +1867,18 @@
       <c r="E40" t="n">
         <v>1</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t xml:space="preserve"> 마음에 두다 </t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t xml:space="preserve"> 마음에 두다 </t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t xml:space="preserve"> 마음에 두다
 </t>
@@ -1859,12 +1908,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t xml:space="preserve"> 마음이 통하다 </t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1888,18 +1938,19 @@
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t xml:space="preserve"> 결혼 생활의 마침표를 찍다 </t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t xml:space="preserve"> 마침표를 찍다
 </t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t xml:space="preserve"> 마침표를 찍다 </t>
         </is>
@@ -1927,17 +1978,18 @@
       <c r="E43" t="n">
         <v>1</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t xml:space="preserve"> 막다른 골목에 이르다 </t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t xml:space="preserve"> 막다른 골목 </t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t xml:space="preserve"> 막다른 골목에 이르다 </t>
         </is>
@@ -1966,12 +2018,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t xml:space="preserve"> 만에 하나 </t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t xml:space="preserve"> 환불받을 수 있는 보험 개념인 </t>
         </is>
@@ -2001,7 +2054,8 @@
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
         <is>
           <t xml:space="preserve"> 예상 수량 </t>
         </is>
@@ -2030,12 +2084,13 @@
         <v>1</v>
       </c>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t xml:space="preserve"> 부품이 없는 게 말이 되다 </t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2060,12 +2115,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t xml:space="preserve"> 말을 듣지 않다 </t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t xml:space="preserve"> 몸이 말을 듣지 않다 </t>
         </is>
@@ -2094,12 +2150,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t xml:space="preserve"> 말이 아니다 </t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t xml:space="preserve"> 말많은 집 </t>
         </is>
@@ -2127,18 +2184,19 @@
       <c r="E49" t="n">
         <v>0</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t xml:space="preserve"> 말문을 열다 
 </t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t xml:space="preserve"> 인적청산 </t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t xml:space="preserve"> 인적 청산 </t>
         </is>
@@ -2166,13 +2224,14 @@
       <c r="E50" t="n">
         <v>1</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t xml:space="preserve"> 말문이 막히다 </t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
         <is>
           <t xml:space="preserve"> 말문이 막히다 </t>
         </is>
@@ -2200,17 +2259,18 @@
       <c r="E51" t="n">
         <v>1</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t xml:space="preserve"> 동성애를 죄러 가르친다 </t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t xml:space="preserve"> 말할 것도 없이 </t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t xml:space="preserve"> 말할 것도 없다 </t>
         </is>
@@ -2238,18 +2298,19 @@
       <c r="E52" t="n">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t xml:space="preserve"> 맞불을 놓고 있다 </t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t xml:space="preserve"> 맞불을 놓다 
 </t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t xml:space="preserve"> 맞불을 놓다 </t>
         </is>
@@ -2278,13 +2339,14 @@
         <v>1</v>
       </c>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t xml:space="preserve"> 머리를 맞대다
 </t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t xml:space="preserve"> 머리를 맞대다 </t>
         </is>
@@ -2312,17 +2374,18 @@
       <c r="E54" t="n">
         <v>0</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t xml:space="preserve"> 수박 겉핥기 </t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t xml:space="preserve"> 국내에 앉아서 머리를 쓰다 </t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2346,17 +2409,18 @@
       <c r="E55" t="n">
         <v>0</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t xml:space="preserve"> 결기를 보이다 </t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t xml:space="preserve"> 결기를 보이다 </t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2380,13 +2444,14 @@
       <c r="E56" t="n">
         <v>0</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t xml:space="preserve"> 멍석을 깔아주듯 </t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
         <is>
           <t xml:space="preserve"> 멍석을 깔다 </t>
         </is>
@@ -2415,12 +2480,13 @@
         <v>1</v>
       </c>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t xml:space="preserve"> 면목이 없다 </t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t xml:space="preserve"> 면목이 없다 </t>
         </is>
@@ -2449,12 +2515,13 @@
         <v>1</v>
       </c>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
         <is>
           <t xml:space="preserve"> 자기 목숨을 버리다 </t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t xml:space="preserve"> 목숨을 버리다 </t>
         </is>
@@ -2484,16 +2551,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t xml:space="preserve"> "목 빠지게 기다리다"  
+</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 목 빠지게 기다리다 </t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t xml:space="preserve"> 목 빠지게 기다리다
 </t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t xml:space="preserve"> 목 빠지게 기다리다 </t>
         </is>
@@ -2521,17 +2594,18 @@
       <c r="E60" t="n">
         <v>0</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t xml:space="preserve"> 몸 둘 바를 모르다 </t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t xml:space="preserve"> 몸둘바를 모르다 </t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2557,7 +2631,8 @@
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
         <is>
           <t xml:space="preserve"> 과학적 사고가 몸에 배다 </t>
         </is>
@@ -2587,7 +2662,8 @@
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
         <is>
           <t xml:space="preserve"> 못 박다 </t>
         </is>
@@ -2615,14 +2691,20 @@
       <c r="E63" t="n">
         <v>1</v>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 본선 진출팀이 없었다
+</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
         <is>
           <t xml:space="preserve"> 본선 무대를 밟다
 </t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t xml:space="preserve"> 본선 진출 </t>
         </is>
@@ -2650,18 +2732,19 @@
       <c r="E64" t="n">
         <v>1</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t xml:space="preserve"> 무릎을 꿇다
 </t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t xml:space="preserve"> 가성비 </t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2686,12 +2769,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t xml:space="preserve"> 개인 사정으로 문을 닫는다 </t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2715,17 +2799,18 @@
       <c r="E66" t="n">
         <v>1</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t xml:space="preserve"> 신진대사를 활발하게 하기 </t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t xml:space="preserve"> 신진대사를 활발하게 하다 </t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t xml:space="preserve"> 마음이 있다 </t>
         </is>
@@ -2753,13 +2838,14 @@
       <c r="E67" t="n">
         <v>1</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t xml:space="preserve"> 문턱이 높다 </t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
         <is>
           <t xml:space="preserve"> 문턱이 높다 </t>
         </is>
@@ -2787,13 +2873,19 @@
       <c r="E68" t="n">
         <v>0</v>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 물이 넘다
+</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
         <is>
           <t xml:space="preserve"> 물 건너가다 </t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t xml:space="preserve"> 물이 건너다 </t>
         </is>
@@ -2821,13 +2913,14 @@
       <c r="E69" t="n">
         <v>0</v>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t xml:space="preserve"> 난타를 치다 </t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
         <is>
           <t xml:space="preserve"> 물을 물다 </t>
         </is>
@@ -2856,12 +2949,13 @@
         <v>0</v>
       </c>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
         <is>
           <t xml:space="preserve"> 미역국을 먹다 </t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t xml:space="preserve"> 미역국을 먹다 </t>
         </is>
@@ -2891,15 +2985,21 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 신뢰에 발목 잡히다 (to have one's ankle caught in trust)
+</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 믿는 도끼에 발길찍히다 </t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t xml:space="preserve"> 믿는 도끼에 발등 찍히다 </t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2924,12 +3024,13 @@
         <v>1</v>
       </c>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
         <is>
           <t xml:space="preserve"> 밑져야 본전 </t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t xml:space="preserve"> 밑져야 본전이다 </t>
         </is>
@@ -2958,13 +3059,14 @@
         <v>1</v>
       </c>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr">
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
         <is>
           <t xml:space="preserve"> 바가지를 씌우다  
 </t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t xml:space="preserve"> 바가지를 씌우다 </t>
         </is>
@@ -2992,19 +3094,20 @@
       <c r="E74" t="n">
         <v>0</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t xml:space="preserve"> 변화의 바람을 불어넣다
 </t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t xml:space="preserve"> 변화의 바람을 불어넣다 
 </t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3028,17 +3131,18 @@
       <c r="E75" t="n">
         <v>1</v>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t xml:space="preserve"> 신선한 바람을 쐬다 </t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t xml:space="preserve"> 신선한 바람을 쐬다 </t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t xml:space="preserve"> 신선한 바람을 쐬다 </t>
         </is>
@@ -3066,14 +3170,15 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t xml:space="preserve"> 새바람을 일으키다
 </t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr">
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
         <is>
           <t xml:space="preserve"> 새 바람을 일으키다 </t>
         </is>
@@ -3101,13 +3206,14 @@
       <c r="E77" t="n">
         <v>0</v>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발길을 재촉하거나 </t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발길을 재촉하다 </t>
         </is>
@@ -3136,13 +3242,14 @@
         <v>1</v>
       </c>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발 디딜 틈이 없다
 </t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발 디딜 틈이 없다 </t>
         </is>
@@ -3170,18 +3277,19 @@
       <c r="E79" t="n">
         <v>1</v>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발이 묶이다 </t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발이 묶이다
 </t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발이 묶이다 </t>
         </is>
@@ -3209,18 +3317,19 @@
       <c r="E80" t="n">
         <v>1</v>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발 벗고 나서다 </t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발 벗고 나서다 
 </t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3244,17 +3353,18 @@
       <c r="E81" t="n">
         <v>0</v>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발 빠르게 움직이다 </t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발을 빠르게 움직이다 </t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발이 빠르다 </t>
         </is>
@@ -3282,13 +3392,14 @@
       <c r="E82" t="n">
         <v>0</v>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발을 뺀다 </t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr">
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발을 뺀다 </t>
         </is>
@@ -3316,17 +3427,18 @@
       <c r="E83" t="n">
         <v>0</v>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발등에 불이 떨어진 </t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발등에 불이 떨어지다 </t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발등에 불이 떨어지다 </t>
         </is>
@@ -3356,15 +3468,21 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 꼬리표를 따라다니다  
+</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 꼬리표를 따라다니다 </t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t xml:space="preserve"> 꼬리표처럼 따라다니다 </t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t xml:space="preserve"> 발목을 잡다 </t>
         </is>
@@ -3392,13 +3510,14 @@
       <c r="E85" t="n">
         <v>1</v>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t xml:space="preserve"> 밤낮을 가리지 않다 </t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3424,7 +3543,8 @@
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
         <is>
           <t xml:space="preserve"> 밥 먹듯 하다 </t>
         </is>
@@ -3453,13 +3573,14 @@
         <v>1</v>
       </c>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr">
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
         <is>
           <t xml:space="preserve"> 배가 아프다
 </t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t xml:space="preserve"> 배가 아프다 </t>
         </is>
@@ -3487,17 +3608,18 @@
       <c r="E88" t="n">
         <v>0</v>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t xml:space="preserve"> 금방 허기져 말 안 풀릴 것이다 </t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t xml:space="preserve"> 금방 허기져 </t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t xml:space="preserve"> 허기져 매점이나 자판기로 배를 채우다 </t>
         </is>
@@ -3525,18 +3647,19 @@
       <c r="E89" t="n">
         <v>1</v>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t xml:space="preserve"> 진지할수록 관객들은 배꼽을 잡게 된다.
 </t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t xml:space="preserve"> 진지하다 </t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t xml:space="preserve"> 배꼽을 잡다 </t>
         </is>
@@ -3566,15 +3689,21 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 백기를 들기
+</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 백기를 든 듯이 </t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t xml:space="preserve"> 백기를 들다 </t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t xml:space="preserve"> 백기를 들다 </t>
         </is>
@@ -3602,17 +3731,18 @@
       <c r="E91" t="n">
         <v>1</v>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t xml:space="preserve"> 백짓장도 맞들면 낫다 </t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t xml:space="preserve"> 백짓장도 맞들면 낫다 </t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t xml:space="preserve"> 백짓장도 맞들면 낫다 </t>
         </is>
@@ -3642,16 +3772,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 불신의 벽을 쌓다  
+</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 불신의 벽을 쌓다 </t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t xml:space="preserve"> 불신의 벽을 쌓다
 </t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t xml:space="preserve"> 불신의 벽을 쌓다 </t>
         </is>
@@ -3679,13 +3815,14 @@
       <c r="E93" t="n">
         <v>1</v>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t xml:space="preserve"> 벽에 부딪히다 </t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
         <is>
           <t xml:space="preserve"> 벽에 부딪치다 </t>
         </is>
@@ -3715,11 +3852,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t xml:space="preserve"> "병 주고 약 주다" is the idiom.
+</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 병 주고 약 주다 </t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr">
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
         <is>
           <t xml:space="preserve"> 병 주다 </t>
         </is>
@@ -3747,13 +3890,14 @@
       <c r="E95" t="n">
         <v>0</v>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t xml:space="preserve"> 빗나가다 </t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
         <is>
           <t xml:space="preserve"> 샌드박스 적용기간인 2년 후에 본격화되다 </t>
         </is>
@@ -3781,13 +3925,14 @@
       <c r="E96" t="n">
         <v>1</v>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
         <is>
           <t xml:space="preserve"> 보는 눈이 있다 </t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
         <is>
           <t xml:space="preserve"> 복덩이를 채우다 </t>
         </is>
@@ -3817,7 +3962,8 @@
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
         <is>
           <t xml:space="preserve"> 보란 듯이 </t>
         </is>
@@ -3847,7 +3993,8 @@
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr">
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
         <is>
           <t xml:space="preserve"> 불 보듯 뻔하다 </t>
         </is>
@@ -3875,13 +4022,14 @@
       <c r="E99" t="n">
         <v>1</v>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
         <is>
           <t xml:space="preserve"> 불꽃 튀는 지략싸움 </t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3905,17 +4053,18 @@
       <c r="E100" t="n">
         <v>1</v>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
         <is>
           <t xml:space="preserve"> '빙산의 일각' </t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t xml:space="preserve"> 빙산의 일각 </t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t xml:space="preserve"> 빙산의 일각 </t>
         </is>
@@ -3943,17 +4092,18 @@
       <c r="E101" t="n">
         <v>1</v>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
         <is>
           <t xml:space="preserve"> 모태 팬 </t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t xml:space="preserve"> 모태 팬 </t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t xml:space="preserve"> 아예 모태 팬이다 </t>
         </is>
@@ -3982,12 +4132,13 @@
         <v>0</v>
       </c>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
         <is>
           <t xml:space="preserve"> 뼈 빠지게 하다 </t>
         </is>
       </c>
-      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4011,13 +4162,14 @@
       <c r="E103" t="n">
         <v>0</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
         <is>
           <t xml:space="preserve"> 뼈를 깎는 심정으로 노력하겠다 </t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4042,12 +4194,13 @@
         <v>1</v>
       </c>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
         <is>
           <t xml:space="preserve"> 뿌리 깊은 불신 </t>
         </is>
       </c>
-      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4073,15 +4226,21 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 회계 비리 뿌리뽑다
+</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 회계 비리를 뿌리뽑는다 </t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t xml:space="preserve"> 뿌리를 뽑다 </t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t xml:space="preserve"> 과일을 따다 </t>
         </is>
@@ -4109,17 +4268,18 @@
       <c r="E106" t="n">
         <v>1</v>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
         <is>
           <t xml:space="preserve"> 사랑이 식다 </t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t xml:space="preserve"> 사랑이 식다 </t>
         </is>
       </c>
-      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4143,18 +4303,19 @@
       <c r="E107" t="n">
         <v>0</v>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
         <is>
           <t xml:space="preserve"> 새빨간 거짓말 </t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t xml:space="preserve"> 새빨간 거짓말이라고 비난하다 
 </t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t xml:space="preserve"> 새빨간 거짓말이다 </t>
         </is>
@@ -4182,17 +4343,18 @@
       <c r="E108" t="n">
         <v>0</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
         <is>
           <t xml:space="preserve"> 서슬 퍼렇다 </t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t xml:space="preserve"> 서슬 퍼리다 </t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t xml:space="preserve"> 서슬 퍼지다 </t>
         </is>
@@ -4220,18 +4382,19 @@
       <c r="E109" t="n">
         <v>1</v>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
         <is>
           <t xml:space="preserve"> 찾는다니 서울에서 김서방 찾기다 
 </t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t xml:space="preserve"> 김서방 찾기 </t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t xml:space="preserve"> 김서방 찾다 </t>
         </is>
@@ -4259,17 +4422,18 @@
       <c r="E110" t="n">
         <v>0</v>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
         <is>
           <t xml:space="preserve"> 선이 굵은 정치 </t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t xml:space="preserve"> 선인 줄 알아서 굵게 정치한다. </t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t xml:space="preserve"> 실사구시 </t>
         </is>
@@ -4300,6 +4464,7 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4324,12 +4489,13 @@
         <v>0</v>
       </c>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr">
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
         <is>
           <t xml:space="preserve"> 세상을 뜨다 </t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t xml:space="preserve"> 세상을 떠나다 </t>
         </is>
@@ -4357,17 +4523,18 @@
       <c r="E113" t="n">
         <v>1</v>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
         <is>
           <t xml:space="preserve"> 이끌기 시작하면 </t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t xml:space="preserve"> 이끌다 </t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t xml:space="preserve"> 이끌기 </t>
         </is>
@@ -4396,12 +4563,13 @@
         <v>1</v>
       </c>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr">
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
         <is>
           <t xml:space="preserve"> 소장도서가 지금은 수만권으로 불어나 셀 수 없을 지경이 됐다 </t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t xml:space="preserve"> 소장도서가 지금은 수만권으로 불어났다 </t>
         </is>
@@ -4429,13 +4597,14 @@
       <c r="E115" t="n">
         <v>0</v>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
         <is>
           <t xml:space="preserve"> 팔소매를 걷어붙이다 </t>
         </is>
       </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr">
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
         <is>
           <t xml:space="preserve"> 팔소매를 걷다 Step 2: To go all out Step 3. Gyeonggi Province went all out in supporting education projects in South American countries.</t>
         </is>
@@ -4463,18 +4632,19 @@
       <c r="E116" t="n">
         <v>0</v>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
         <is>
           <t xml:space="preserve"> 속을 끓이다 </t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t xml:space="preserve"> 속을 끓이다
 </t>
         </is>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4498,13 +4668,19 @@
       <c r="E117" t="n">
         <v>0</v>
       </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 속 시원한 
+</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
         <is>
           <t xml:space="preserve"> 밤을 새다 </t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t xml:space="preserve"> 밤을 새다 </t>
         </is>
@@ -4534,7 +4710,8 @@
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr">
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
         <is>
           <t xml:space="preserve"> 속을 태우다
 </t>
@@ -4563,17 +4740,18 @@
       <c r="E119" t="n">
         <v>1</v>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손을 내밀다 </t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손을 내밀다 </t>
         </is>
       </c>
-      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4597,17 +4775,18 @@
       <c r="E120" t="n">
         <v>0</v>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손을 뗀다 </t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손을 뗀다 </t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손을 뗀다 </t>
         </is>
@@ -4635,18 +4814,19 @@
       <c r="E121" t="n">
         <v>1</v>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
         <is>
           <t xml:space="preserve"> 몇 번 더 도전하다 보면
 </t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t xml:space="preserve"> 몇 번 더 도전하다 보면 </t>
         </is>
       </c>
-      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4672,7 +4852,8 @@
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr">
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손가락 안에 들다 </t>
         </is>
@@ -4700,14 +4881,15 @@
       <c r="E123" t="n">
         <v>0</v>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손꼽아 기다리다
 </t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손꼽다 </t>
         </is>
@@ -4735,17 +4917,18 @@
       <c r="E124" t="n">
         <v>0</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손바닥 뒤집다 </t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손바닥 뒤집다 </t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손바닥 뒤집다 </t>
         </is>
@@ -4773,17 +4956,18 @@
       <c r="E125" t="n">
         <v>0</v>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
         <is>
           <t xml:space="preserve"> 곰 농장 단속을 나가다 </t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t xml:space="preserve"> 곰 농장 단속을 나가다 </t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t xml:space="preserve"> 곰 농장 단속을 나가다 </t>
         </is>
@@ -4811,17 +4995,18 @@
       <c r="E126" t="n">
         <v>0</v>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손발을 맞추다 </t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손발을 맞추다 </t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손발을 맞추다 </t>
         </is>
@@ -4852,6 +5037,7 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4875,17 +5061,18 @@
       <c r="E128" t="n">
         <v>1</v>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
         <is>
           <t xml:space="preserve"> 내 손에 장을 지지다 </t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t xml:space="preserve"> 장을 지치다 </t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t xml:space="preserve"> 장을 지지다 </t>
         </is>
@@ -4913,17 +5100,18 @@
       <c r="E129" t="n">
         <v>0</v>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
         <is>
           <t xml:space="preserve"> 근본적인 문제 </t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손을 놓다 </t>
         </is>
       </c>
-      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4947,13 +5135,19 @@
       <c r="E130" t="n">
         <v>1</v>
       </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr">
+      <c r="F130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 손을 맞잡다
+</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손을 맞잡다 </t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손을 맞잡다 </t>
         </is>
@@ -4981,19 +5175,20 @@
       <c r="E131" t="n">
         <v>1</v>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
         <is>
           <t xml:space="preserve"> 손이 닿지 않던
 </t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t xml:space="preserve"> 시장 환경 쇄신에 노력하다
 </t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t xml:space="preserve"> 시장 천장을 청소하다 </t>
         </is>
@@ -5021,17 +5216,18 @@
       <c r="E132" t="n">
         <v>1</v>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
         <is>
           <t xml:space="preserve"> 도착하다 </t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t xml:space="preserve"> 숨을 돌리다 </t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t xml:space="preserve"> 숨을 돌리다 </t>
         </is>
@@ -5059,13 +5255,14 @@
       <c r="E133" t="n">
         <v>0</v>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
         <is>
           <t xml:space="preserve"> 숨이 턱 막히다 </t>
         </is>
       </c>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr">
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
         <is>
           <t xml:space="preserve"> 숨이 턱 막히다 </t>
         </is>
@@ -5093,17 +5290,18 @@
       <c r="E134" t="n">
         <v>1</v>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
         <is>
           <t xml:space="preserve"> 위기에 처한 숨통을 틔워줄 필요가 있다 </t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t xml:space="preserve"> 숨통을 틔다 </t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t xml:space="preserve"> 숨통을 틔워주다 </t>
         </is>
@@ -5131,18 +5329,19 @@
       <c r="E135" t="n">
         <v>0</v>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
         <is>
           <t xml:space="preserve"> 어쩌다 </t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t xml:space="preserve"> 시간 가는 줄을 모르다
 </t>
         </is>
       </c>
-      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5167,12 +5366,13 @@
         <v>0</v>
       </c>
       <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr">
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
         <is>
           <t xml:space="preserve"> 시도 때도 없이 울리다 </t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5196,17 +5396,18 @@
       <c r="E137" t="n">
         <v>1</v>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
         <is>
           <t xml:space="preserve"> 시작이 반이다 </t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t xml:space="preserve"> 시작이 반이다 </t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t xml:space="preserve"> 시작이 반이다 </t>
         </is>
@@ -5235,12 +5436,13 @@
         <v>1</v>
       </c>
       <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr">
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
         <is>
           <t xml:space="preserve"> 식은 죽 먹기 </t>
         </is>
       </c>
-      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5264,17 +5466,18 @@
       <c r="E139" t="n">
         <v>0</v>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
         <is>
           <t xml:space="preserve"> 신경 쓰지 마시고 </t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t xml:space="preserve"> 신경 쓰다 </t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t xml:space="preserve"> 신경 쓰지 마시다 </t>
         </is>
@@ -5302,17 +5505,18 @@
       <c r="E140" t="n">
         <v>0</v>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
         <is>
           <t xml:space="preserve"> 심장이 매일 뛰어요 </t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t xml:space="preserve"> 심장이 매일 뛸 것 같다 </t>
         </is>
       </c>
-      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5336,9 +5540,15 @@
       <c r="E141" t="n">
         <v>0</v>
       </c>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 노아웃 1, 3루 기회
+</t>
+        </is>
+      </c>
       <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
         <is>
           <t xml:space="preserve"> 쐐기를 박다 </t>
         </is>
@@ -5366,17 +5576,18 @@
       <c r="E142" t="n">
         <v>0</v>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
         <is>
           <t xml:space="preserve"> 말이 아귀가 맞다 </t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t xml:space="preserve"> 말이 아귀가 맞지 않다 </t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5400,17 +5611,18 @@
       <c r="E143" t="n">
         <v>0</v>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
         <is>
           <t xml:space="preserve"> 아니나 다를까 </t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t xml:space="preserve"> 아니나 다를까 </t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t xml:space="preserve"> 아니나 다를까 </t>
         </is>
@@ -5438,13 +5650,19 @@
       <c r="E144" t="n">
         <v>0</v>
       </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr">
+      <c r="F144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Idiom: 오가다 (go back and forth)
+</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
         <is>
           <t xml:space="preserve"> 최적의 갤러리가 아니다 </t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t xml:space="preserve"> 갤러리가 아니다 </t>
         </is>
@@ -5473,12 +5691,13 @@
         <v>0</v>
       </c>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr">
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
         <is>
           <t xml:space="preserve"> 추위에 아무렇지도 않다 </t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t xml:space="preserve"> 추위에 아무렇지도 않다 </t>
         </is>
@@ -5508,15 +5727,21 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 꽂기가 알게 모르게 이뤄지다
+</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 사람을 꽂는다 </t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t xml:space="preserve"> 꽂기 </t>
         </is>
       </c>
-      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5543,6 +5768,7 @@
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5566,14 +5792,20 @@
       <c r="E148" t="n">
         <v>1</v>
       </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t xml:space="preserve"> 앞서거니 뒤서거니
 </t>
         </is>
       </c>
+      <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 앞서거니 뒤서거니
+</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
         <is>
           <t xml:space="preserve"> 앞서거니 뒤서거니 </t>
         </is>
@@ -5601,14 +5833,20 @@
       <c r="E149" t="n">
         <v>0</v>
       </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr">
+      <c r="F149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "어깨가 무겁다"  
+</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
         <is>
           <t xml:space="preserve"> 어깨가 무겁다
 </t>
         </is>
       </c>
-      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5632,17 +5870,18 @@
       <c r="E150" t="n">
         <v>0</v>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
         <is>
           <t xml:space="preserve"> 어깨를 나란히 한다 </t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t xml:space="preserve"> 어깨를 나란히 하다 </t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t xml:space="preserve"> 어깨를 나란히 하다 </t>
         </is>
@@ -5670,17 +5909,18 @@
       <c r="E151" t="n">
         <v>0</v>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
         <is>
           <t xml:space="preserve"> 다르게 생기고 돈 없고 싸움을 못한다 </t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t xml:space="preserve"> 약자가 괴롭힘을 당하다 </t>
         </is>
       </c>
-      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5706,15 +5946,21 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 가치를 보장하지 않다
+</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 큰 손실이 발생할 수 있다 </t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t xml:space="preserve"> 큰 손실이 발생할 수 있다 </t>
         </is>
       </c>
-      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5738,17 +5984,18 @@
       <c r="E153" t="n">
         <v>0</v>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
         <is>
           <t xml:space="preserve"> 어안이 벙벙해 </t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t xml:space="preserve"> 어안이 벙벙하다 </t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="I153" t="inlineStr">
         <is>
           <t xml:space="preserve"> 어안이 벙벙하다 </t>
         </is>
@@ -5776,17 +6023,18 @@
       <c r="E154" t="n">
         <v>0</v>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
         <is>
           <t xml:space="preserve"> 억장이 무너졌다 </t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t xml:space="preserve"> 억장이 무너졌다 </t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="I154" t="inlineStr">
         <is>
           <t xml:space="preserve"> 억장이 무너지다 </t>
         </is>
@@ -5816,7 +6064,8 @@
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr">
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
         <is>
           <t xml:space="preserve"> 엎친 데 덮치다 </t>
         </is>
@@ -5845,12 +6094,13 @@
         <v>0</v>
       </c>
       <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr">
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
         <is>
           <t xml:space="preserve"> 어렵다 </t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="I156" t="inlineStr">
         <is>
           <t xml:space="preserve"> 입맛이 제각각이다 </t>
         </is>
@@ -5878,13 +6128,14 @@
       <c r="E157" t="n">
         <v>0</v>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
         <is>
           <t xml:space="preserve"> 사랑을 실천하시다 </t>
         </is>
       </c>
-      <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5909,12 +6160,13 @@
         <v>0</v>
       </c>
       <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr">
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
         <is>
           <t xml:space="preserve"> 오도 가도 못하다 </t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="I158" t="inlineStr">
         <is>
           <t xml:space="preserve"> 한복판에서 오도 가도 못하다 </t>
         </is>
@@ -5942,17 +6194,18 @@
       <c r="E159" t="n">
         <v>0</v>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
         <is>
           <t xml:space="preserve"> 오지랖이 넓다 </t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t xml:space="preserve"> 오지랖이 넓다 </t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="I159" t="inlineStr">
         <is>
           <t xml:space="preserve"> 오지랖이 넓다 </t>
         </is>
@@ -5980,17 +6233,18 @@
       <c r="E160" t="n">
         <v>0</v>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
         <is>
           <t xml:space="preserve"> 호른이 낼 수 있는 소리는 다 들은 것 같다 </t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t xml:space="preserve"> 호른이 낼 수 있는 소리는 다 들었다 </t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t xml:space="preserve"> 우레 같은 박수 </t>
         </is>
@@ -6018,18 +6272,19 @@
       <c r="E161" t="n">
         <v>0</v>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
         <is>
           <t xml:space="preserve"> 헌신하시는 여러분의 노고를 치하하다
 </t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t xml:space="preserve"> 운을 뗀다 </t>
         </is>
       </c>
-      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6055,16 +6310,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Idiom: 운전대를 잡다  
+</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 소주 1잔을 마시고 운전대를 잡아도 면허가 정지된다.
 </t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t xml:space="preserve"> 운전대를 잡다 </t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="I162" t="inlineStr">
         <is>
           <t xml:space="preserve"> 면허가 정지된다 </t>
         </is>
@@ -6093,12 +6354,13 @@
         <v>1</v>
       </c>
       <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr">
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
         <is>
           <t xml:space="preserve"> 울며 겨자 먹기 </t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="I163" t="inlineStr">
         <is>
           <t xml:space="preserve"> 울며 겨자를 먹다
 </t>
@@ -6129,15 +6391,21 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
+          <t xml:space="preserve"> "치솟아 오르는"  
+</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 힘겹게 삼키다 </t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t xml:space="preserve"> 치솟다 </t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="I164" t="inlineStr">
         <is>
           <t xml:space="preserve"> 소리가 들리다 </t>
         </is>
@@ -6165,17 +6433,18 @@
       <c r="E165" t="n">
         <v>0</v>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
         <is>
           <t xml:space="preserve"> 불행하기 이를 데 없는 전쟁 </t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t xml:space="preserve"> 치명적인 상처를 입히다 </t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="I165" t="inlineStr">
         <is>
           <t xml:space="preserve"> 별반 다르지 않다 </t>
         </is>
@@ -6204,12 +6473,13 @@
         <v>1</v>
       </c>
       <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr">
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
         <is>
           <t xml:space="preserve"> 자랑스럽다 </t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="I166" t="inlineStr">
         <is>
           <t xml:space="preserve"> 자랑스럽다 </t>
         </is>
@@ -6238,12 +6508,13 @@
         <v>0</v>
       </c>
       <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr">
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
         <is>
           <t xml:space="preserve"> 인상을 쓰다 </t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t xml:space="preserve"> 인상을 쓰다 </t>
         </is>
@@ -6273,7 +6544,8 @@
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr">
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
         <is>
           <t xml:space="preserve"> 불러서 해결하다 </t>
         </is>
@@ -6301,17 +6573,18 @@
       <c r="E169" t="n">
         <v>1</v>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
         <is>
           <t xml:space="preserve"> 입이 다물고 있다 </t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t xml:space="preserve"> 입 다물다 </t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="I169" t="inlineStr">
         <is>
           <t xml:space="preserve"> 입을 다물다 </t>
         </is>
@@ -6341,15 +6614,21 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 입을 맞추다  
+</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 입을 맞추다 </t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t xml:space="preserve"> 입을 맞추다 </t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="I170" t="inlineStr">
         <is>
           <t xml:space="preserve"> 입을 맞추다 </t>
         </is>
@@ -6377,18 +6656,19 @@
       <c r="E171" t="n">
         <v>0</v>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
         <is>
           <t xml:space="preserve"> 일부 몰지각한 
 </t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t xml:space="preserve"> 몰지각한 </t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="I171" t="inlineStr">
         <is>
           <t xml:space="preserve"> 말을 모으다
 </t>
@@ -6417,13 +6697,14 @@
       <c r="E172" t="n">
         <v>1</v>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
         <is>
           <t xml:space="preserve"> 기반을 다지다 </t>
         </is>
       </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr">
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
         <is>
           <t xml:space="preserve"> 이름을 걸다 </t>
         </is>
@@ -6451,13 +6732,14 @@
       <c r="E173" t="n">
         <v>0</v>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
         <is>
           <t xml:space="preserve"> 입에 달고 다니다 </t>
         </is>
       </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr">
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr">
         <is>
           <t xml:space="preserve"> 입에 달고 다니다 </t>
         </is>
@@ -6485,19 +6767,20 @@
       <c r="E174" t="n">
         <v>0</v>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
         <is>
           <t xml:space="preserve"> 함부로 입에 담지 않다
 </t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t xml:space="preserve"> 함부로 입에 담다
 </t>
         </is>
       </c>
-      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6521,19 +6804,20 @@
       <c r="E175" t="n">
         <v>1</v>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
         <is>
           <t xml:space="preserve"> 입이 가볍다
 </t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t xml:space="preserve"> 입이 가볍다 
 </t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="I175" t="inlineStr">
         <is>
           <t xml:space="preserve"> 입이 가볍다 
 </t>
@@ -6563,13 +6847,14 @@
         <v>0</v>
       </c>
       <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr">
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
         <is>
           <t xml:space="preserve"> 입이 딱 벌어지다 
 </t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="I176" t="inlineStr">
         <is>
           <t xml:space="preserve"> 당황스러운 현상 </t>
         </is>
@@ -6597,13 +6882,14 @@
       <c r="E177" t="n">
         <v>0</v>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
         <is>
           <t xml:space="preserve"> 자나 깨나 </t>
         </is>
       </c>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr">
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
         <is>
           <t xml:space="preserve"> 자나 깨나 </t>
         </is>
@@ -6633,7 +6919,8 @@
       </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr">
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
         <is>
           <t xml:space="preserve"> 자취를 감추다 </t>
         </is>
@@ -6661,17 +6948,18 @@
       <c r="E179" t="n">
         <v>0</v>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
         <is>
           <t xml:space="preserve"> 잔뼈가 굵다 </t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t xml:space="preserve"> 잔뼈가 굵다 </t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="I179" t="inlineStr">
         <is>
           <t xml:space="preserve"> 잔뼈가 굵다 </t>
         </is>
@@ -6700,12 +6988,13 @@
         <v>0</v>
       </c>
       <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr">
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
         <is>
           <t xml:space="preserve"> 적을 옮기다 </t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="I180" t="inlineStr">
         <is>
           <t xml:space="preserve"> 의전비서관으로 적을 옮기다 </t>
         </is>
@@ -6736,6 +7025,7 @@
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6759,13 +7049,14 @@
       <c r="E182" t="n">
         <v>1</v>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
         <is>
           <t xml:space="preserve"> 정곡을 찌른 </t>
         </is>
       </c>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr">
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
         <is>
           <t xml:space="preserve"> 정곡을 찌르다 </t>
         </is>
@@ -6794,12 +7085,13 @@
         <v>1</v>
       </c>
       <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr">
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
         <is>
           <t xml:space="preserve"> 그따위로 운전하다 </t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="I183" t="inlineStr">
         <is>
           <t xml:space="preserve"> 그따위로 운전하다 </t>
         </is>
@@ -6829,7 +7121,8 @@
       </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr">
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
         <is>
           <t xml:space="preserve"> 제동을 걸다 </t>
         </is>
@@ -6857,17 +7150,18 @@
       <c r="E185" t="n">
         <v>1</v>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
         <is>
           <t xml:space="preserve"> 치욕의 역사에 종지부를 찍다 </t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t xml:space="preserve"> 치욕의 역사 </t>
         </is>
       </c>
-      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6891,17 +7185,18 @@
       <c r="E186" t="n">
         <v>1</v>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
         <is>
           <t xml:space="preserve"> 털다 </t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
+      <c r="H186" t="inlineStr">
         <is>
           <t xml:space="preserve"> 주머니를 털다 </t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="I186" t="inlineStr">
         <is>
           <t xml:space="preserve"> 주머니를 털다 </t>
         </is>
@@ -6930,12 +7225,13 @@
         <v>0</v>
       </c>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr">
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
         <is>
           <t xml:space="preserve"> 죽기 살기로 </t>
         </is>
       </c>
-      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6959,13 +7255,14 @@
       <c r="E188" t="n">
         <v>0</v>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
         <is>
           <t xml:space="preserve"> 죽기보다 싫어하다 </t>
         </is>
       </c>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr">
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
         <is>
           <t xml:space="preserve"> 사람들 앞에 서다 </t>
         </is>
@@ -6995,7 +7292,8 @@
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr">
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
         <is>
           <t xml:space="preserve"> 쥐죽은 듯 안정하다 </t>
         </is>
@@ -7023,17 +7321,18 @@
       <c r="E190" t="n">
         <v>1</v>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
         <is>
           <t xml:space="preserve"> 무서운 상승세 </t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
+      <c r="H190" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지휘봉을 잡다 </t>
         </is>
       </c>
-      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7057,13 +7356,14 @@
       <c r="E191" t="n">
         <v>0</v>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
         <is>
           <t xml:space="preserve"> 직성이 풀리다 </t>
         </is>
       </c>
-      <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7087,17 +7387,18 @@
       <c r="E192" t="n">
         <v>0</v>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
         <is>
           <t xml:space="preserve"> 진이 다 빠지다 </t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t xml:space="preserve"> 진이 다 빠지다 </t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="I192" t="inlineStr">
         <is>
           <t xml:space="preserve"> 진이 다 빠지다 </t>
         </is>
@@ -7127,7 +7428,8 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
         <is>
           <t xml:space="preserve"> 진땀을 흘리다 </t>
         </is>
@@ -7156,12 +7458,13 @@
         <v>0</v>
       </c>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr">
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
         <is>
           <t xml:space="preserve"> 방심하다 </t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="I194" t="inlineStr">
         <is>
           <t xml:space="preserve"> 방심하다 </t>
         </is>
@@ -7191,15 +7494,21 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
+          <t xml:space="preserve"> This sentence contains the idiom "짚고 넘어가다."
+</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 짚고 넘어가다 </t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t xml:space="preserve"> 짚고 넘어가다 </t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
+      <c r="I195" t="inlineStr">
         <is>
           <t xml:space="preserve"> 짚고 넘어가다 </t>
         </is>
@@ -7227,18 +7536,19 @@
       <c r="E196" t="n">
         <v>0</v>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
         <is>
           <t xml:space="preserve"> 유별나게 반응한다 </t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
+      <c r="H196" t="inlineStr">
         <is>
           <t xml:space="preserve"> 찬물을 끼얹다
 </t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
+      <c r="I196" t="inlineStr">
         <is>
           <t xml:space="preserve"> 찬물을 끼얹다 </t>
         </is>
@@ -7267,13 +7577,14 @@
         <v>1</v>
       </c>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr">
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
         <is>
           <t xml:space="preserve"> 첫 단추를 끼우다 
 </t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
+      <c r="I197" t="inlineStr">
         <is>
           <t xml:space="preserve"> 첫 단추를 끼우다
 </t>
@@ -7302,18 +7613,19 @@
       <c r="E198" t="n">
         <v>0</v>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
         <is>
           <t xml:space="preserve"> 촉각을 곤두세우다 </t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
+      <c r="H198" t="inlineStr">
         <is>
           <t xml:space="preserve"> 촉각을 곤두세우다
 </t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="I198" t="inlineStr">
         <is>
           <t xml:space="preserve"> 촉각을 곤두세우다 </t>
         </is>
@@ -7343,15 +7655,21 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
+          <t xml:space="preserve"> "총대를 메다"
+</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 총대를 메다 </t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t xml:space="preserve"> 지휘하다 </t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
+      <c r="I199" t="inlineStr">
         <is>
           <t xml:space="preserve"> 총대를 메다 </t>
         </is>
@@ -7379,13 +7697,14 @@
       <c r="E200" t="n">
         <v>0</v>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
         <is>
           <t xml:space="preserve"> 출사표를 내다 </t>
         </is>
       </c>
-      <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7409,17 +7728,18 @@
       <c r="E201" t="n">
         <v>0</v>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr">
         <is>
           <t xml:space="preserve"> 세금도둑 </t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t xml:space="preserve"> 세금도둑 </t>
         </is>
       </c>
-      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7444,12 +7764,13 @@
         <v>0</v>
       </c>
       <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr">
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
         <is>
           <t xml:space="preserve"> 콧대 높기 </t>
         </is>
       </c>
-      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7474,12 +7795,13 @@
         <v>0</v>
       </c>
       <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr">
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
         <is>
           <t xml:space="preserve"> 탄력을 받을 </t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="I203" t="inlineStr">
         <is>
           <t xml:space="preserve"> 탄력을 받다 </t>
         </is>
@@ -7509,7 +7831,8 @@
       </c>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr">
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
         <is>
           <t xml:space="preserve"> 농담의 탈을 쓰다 </t>
         </is>
@@ -7538,12 +7861,13 @@
         <v>0</v>
       </c>
       <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr">
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
         <is>
           <t xml:space="preserve"> 토씨 하나 안 빼다 </t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="I205" t="inlineStr">
         <is>
           <t xml:space="preserve"> 토씨 하나 안 빼다 </t>
         </is>
@@ -7571,17 +7895,18 @@
       <c r="E206" t="n">
         <v>0</v>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr">
         <is>
           <t xml:space="preserve"> 번번이 퇴짜를 맞다 </t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t xml:space="preserve"> 퇴짜를 맞다 </t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
+      <c r="I206" t="inlineStr">
         <is>
           <t xml:space="preserve"> 퇴짜를 맞다 </t>
         </is>
@@ -7609,17 +7934,18 @@
       <c r="E207" t="n">
         <v>0</v>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr">
         <is>
           <t xml:space="preserve"> 억지로 트집을 잡는 </t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t xml:space="preserve"> 트집을 잡다 </t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
+      <c r="I207" t="inlineStr">
         <is>
           <t xml:space="preserve"> 악덕 업체 </t>
         </is>
@@ -7647,17 +7973,18 @@
       <c r="E208" t="n">
         <v>0</v>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr">
         <is>
           <t xml:space="preserve"> 참고하다 </t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
+      <c r="H208" t="inlineStr">
         <is>
           <t xml:space="preserve"> 사례 먼저 참고하다 </t>
         </is>
       </c>
-      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7681,17 +8008,18 @@
       <c r="E209" t="n">
         <v>0</v>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr">
         <is>
           <t xml:space="preserve"> 파리 날리다 </t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t xml:space="preserve"> 파리 날다 </t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="I209" t="inlineStr">
         <is>
           <t xml:space="preserve"> 파리 날리다 </t>
         </is>
@@ -7721,7 +8049,8 @@
       </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr">
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
         <is>
           <t xml:space="preserve"> 판에 박히다 </t>
         </is>
@@ -7750,12 +8079,13 @@
         <v>1</v>
       </c>
       <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr">
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
         <is>
           <t xml:space="preserve"> 결국 포문을 열다 </t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
+      <c r="I211" t="inlineStr">
         <is>
           <t xml:space="preserve"> 포문을 열다 </t>
         </is>
@@ -7784,12 +8114,13 @@
         <v>1</v>
       </c>
       <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr">
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
         <is>
           <t xml:space="preserve"> 피부로 느끼다 </t>
         </is>
       </c>
-      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7815,7 +8146,8 @@
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr">
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr">
         <is>
           <t xml:space="preserve"> 받아주기 어렵다 </t>
         </is>
@@ -7843,17 +8175,18 @@
       <c r="E214" t="n">
         <v>0</v>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
         <is>
           <t xml:space="preserve"> 필름이 끊기다 </t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
+      <c r="H214" t="inlineStr">
         <is>
           <t xml:space="preserve"> 필름이 끊겼다 </t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="I214" t="inlineStr">
         <is>
           <t xml:space="preserve"> 필름이 끊기다 </t>
         </is>
@@ -7882,12 +8215,13 @@
         <v>0</v>
       </c>
       <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr">
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr">
         <is>
           <t xml:space="preserve"> 핏대를 세우다 </t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
+      <c r="I215" t="inlineStr">
         <is>
           <t xml:space="preserve"> 핏대를 세우다 </t>
         </is>
@@ -7915,17 +8249,18 @@
       <c r="E216" t="n">
         <v>0</v>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
         <is>
           <t xml:space="preserve"> 이면에 </t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
+      <c r="H216" t="inlineStr">
         <is>
           <t xml:space="preserve"> 이면에는 </t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
+      <c r="I216" t="inlineStr">
         <is>
           <t xml:space="preserve"> 이면에는 </t>
         </is>
@@ -7953,13 +8288,19 @@
       <c r="E217" t="n">
         <v>0</v>
       </c>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr">
+      <c r="F217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "하는 수 없이"  
+</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
         <is>
           <t xml:space="preserve"> 하는 수 없이 </t>
         </is>
       </c>
-      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7983,13 +8324,14 @@
       <c r="E218" t="n">
         <v>0</v>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr">
         <is>
           <t xml:space="preserve"> 치솟고 있다 </t>
         </is>
       </c>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr">
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
         <is>
           <t xml:space="preserve"> 치솟다 </t>
         </is>
@@ -8017,13 +8359,14 @@
       <c r="E219" t="n">
         <v>0</v>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr">
         <is>
           <t xml:space="preserve"> 하늘과 땅 차이 </t>
         </is>
       </c>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr">
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr">
         <is>
           <t xml:space="preserve"> 하늘과 땅 차이 </t>
         </is>
@@ -8052,12 +8395,13 @@
         <v>0</v>
       </c>
       <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr">
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr">
         <is>
           <t xml:space="preserve"> 염려하다 </t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="I220" t="inlineStr">
         <is>
           <t xml:space="preserve"> 연로해지다 </t>
         </is>
@@ -8085,17 +8429,18 @@
       <c r="E221" t="n">
         <v>0</v>
       </c>
-      <c r="F221" t="inlineStr">
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr">
         <is>
           <t xml:space="preserve"> 하루가 멀다 </t>
         </is>
       </c>
-      <c r="G221" t="inlineStr">
+      <c r="H221" t="inlineStr">
         <is>
           <t xml:space="preserve"> 하루가 멀다 하다 </t>
         </is>
       </c>
-      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8119,18 +8464,19 @@
       <c r="E222" t="n">
         <v>0</v>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr">
         <is>
           <t xml:space="preserve"> 한마음 한뜻 </t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t xml:space="preserve"> 한마음 한뜻으로 뭉치다
 </t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="I222" t="inlineStr">
         <is>
           <t xml:space="preserve"> 한마음 한뜻 </t>
         </is>
@@ -8158,17 +8504,18 @@
       <c r="E223" t="n">
         <v>0</v>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr">
         <is>
           <t xml:space="preserve"> 한술 더 떠 </t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
+      <c r="H223" t="inlineStr">
         <is>
           <t xml:space="preserve"> 한술 더 떠 </t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
+      <c r="I223" t="inlineStr">
         <is>
           <t xml:space="preserve"> 한술 더 뜨다 </t>
         </is>
@@ -8196,9 +8543,15 @@
       <c r="E224" t="n">
         <v>1</v>
       </c>
-      <c r="F224" t="inlineStr"/>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 한숨을 돌리게 됐다  
+</t>
+        </is>
+      </c>
       <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr">
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
         <is>
           <t xml:space="preserve"> 한숨을 돌리다 </t>
         </is>
@@ -8227,12 +8580,13 @@
         <v>0</v>
       </c>
       <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr">
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
         <is>
           <t xml:space="preserve"> 대한민국 </t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
+      <c r="I225" t="inlineStr">
         <is>
           <t xml:space="preserve"> 한시가 급하다 </t>
         </is>
@@ -8260,17 +8614,18 @@
       <c r="E226" t="n">
         <v>0</v>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr">
         <is>
           <t xml:space="preserve"> 영세한 기획사 </t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
+      <c r="H226" t="inlineStr">
         <is>
           <t xml:space="preserve"> 허울 좋은 </t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
+      <c r="I226" t="inlineStr">
         <is>
           <t xml:space="preserve"> ‘상상의 질서’ </t>
         </is>
@@ -8298,17 +8653,18 @@
       <c r="E227" t="n">
         <v>0</v>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
         <is>
           <t xml:space="preserve"> 혀를 내둘렀다 </t>
         </is>
       </c>
-      <c r="G227" t="inlineStr">
+      <c r="H227" t="inlineStr">
         <is>
           <t xml:space="preserve"> 혀를 내둘리다 </t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
+      <c r="I227" t="inlineStr">
         <is>
           <t xml:space="preserve"> 혀를 내둘리다 </t>
         </is>
@@ -8337,12 +8693,13 @@
         <v>0</v>
       </c>
       <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr">
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
         <is>
           <t xml:space="preserve"> 혈안이 되다 </t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
+      <c r="I228" t="inlineStr">
         <is>
           <t xml:space="preserve"> 혈안이 되다 </t>
         </is>
@@ -8370,17 +8727,18 @@
       <c r="E229" t="n">
         <v>1</v>
       </c>
-      <c r="F229" t="inlineStr">
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr">
         <is>
           <t xml:space="preserve"> 호랑이도 제말하면 나타난다 </t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
+      <c r="H229" t="inlineStr">
         <is>
           <t xml:space="preserve"> 호랑이도 제말하면 나타난다 </t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
+      <c r="I229" t="inlineStr">
         <is>
           <t xml:space="preserve"> 호랑이도 제말하면 나타난다 </t>
         </is>
@@ -8408,18 +8766,19 @@
       <c r="E230" t="n">
         <v>0</v>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr">
         <is>
           <t xml:space="preserve"> 호흡을 맞추다 </t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
+      <c r="H230" t="inlineStr">
         <is>
           <t xml:space="preserve"> 호흡을 맞추다
 </t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="I230" t="inlineStr">
         <is>
           <t xml:space="preserve"> 호흡을 맞추다 </t>
         </is>
@@ -8447,13 +8806,19 @@
       <c r="E231" t="n">
         <v>1</v>
       </c>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr">
+      <c r="F231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 재조명 되다
+</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
         <is>
           <t xml:space="preserve"> 재조명 되다 </t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
+      <c r="I231" t="inlineStr">
         <is>
           <t xml:space="preserve"> 화촉을 밝히다 </t>
         </is>
